--- a/data_year/zb/教育/每十万人口各级学校平均在校生数.xlsx
+++ b/data_year/zb/教育/每十万人口各级学校平均在校生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,287 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4969</v>
+        <v>3955</v>
       </c>
       <c r="C2" t="n">
-        <v>10335</v>
+        <v>7448</v>
       </c>
       <c r="D2" t="n">
-        <v>1782</v>
+        <v>2230</v>
       </c>
       <c r="E2" t="n">
-        <v>2000</v>
+        <v>3504</v>
       </c>
       <c r="F2" t="n">
-        <v>723</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5161</v>
+        <v>3779</v>
       </c>
       <c r="C3" t="n">
-        <v>9937</v>
+        <v>7403</v>
       </c>
       <c r="D3" t="n">
-        <v>1602</v>
+        <v>2554</v>
       </c>
       <c r="E3" t="n">
-        <v>2021</v>
+        <v>3495</v>
       </c>
       <c r="F3" t="n">
-        <v>931</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5240</v>
+        <v>3535</v>
       </c>
       <c r="C4" t="n">
-        <v>9525</v>
+        <v>7196</v>
       </c>
       <c r="D4" t="n">
-        <v>1595</v>
+        <v>2736</v>
       </c>
       <c r="E4" t="n">
-        <v>2283</v>
+        <v>3411</v>
       </c>
       <c r="F4" t="n">
-        <v>1146</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5209</v>
+        <v>3279</v>
       </c>
       <c r="C5" t="n">
-        <v>9100</v>
+        <v>6913</v>
       </c>
       <c r="D5" t="n">
-        <v>1560</v>
+        <v>2876</v>
       </c>
       <c r="E5" t="n">
-        <v>2523</v>
+        <v>3227</v>
       </c>
       <c r="F5" t="n">
-        <v>1298</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5058</v>
+        <v>3222</v>
       </c>
       <c r="C6" t="n">
-        <v>8725</v>
+        <v>6946</v>
       </c>
       <c r="D6" t="n">
-        <v>1617</v>
+        <v>2977</v>
       </c>
       <c r="E6" t="n">
-        <v>2824</v>
+        <v>3100</v>
       </c>
       <c r="F6" t="n">
-        <v>1420</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4781</v>
+        <v>3152</v>
       </c>
       <c r="C7" t="n">
-        <v>8358</v>
+        <v>7086</v>
       </c>
       <c r="D7" t="n">
-        <v>1676</v>
+        <v>3118</v>
       </c>
       <c r="E7" t="n">
-        <v>3070</v>
+        <v>2965</v>
       </c>
       <c r="F7" t="n">
-        <v>1613</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4557</v>
+        <v>3150</v>
       </c>
       <c r="C8" t="n">
-        <v>8192</v>
+        <v>7211</v>
       </c>
       <c r="D8" t="n">
-        <v>1731</v>
+        <v>3211</v>
       </c>
       <c r="E8" t="n">
-        <v>3321</v>
+        <v>2887</v>
       </c>
       <c r="F8" t="n">
-        <v>1816</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4364</v>
+        <v>3213</v>
       </c>
       <c r="C9" t="n">
-        <v>8037</v>
+        <v>7300</v>
       </c>
       <c r="D9" t="n">
-        <v>1787</v>
+        <v>3327</v>
       </c>
       <c r="E9" t="n">
-        <v>3409</v>
+        <v>2861</v>
       </c>
       <c r="F9" t="n">
-        <v>1924</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4227</v>
+        <v>3347</v>
       </c>
       <c r="C10" t="n">
-        <v>7819</v>
+        <v>7438</v>
       </c>
       <c r="D10" t="n">
-        <v>1873</v>
+        <v>3350</v>
       </c>
       <c r="E10" t="n">
-        <v>3463</v>
+        <v>2828</v>
       </c>
       <c r="F10" t="n">
-        <v>2042</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4097</v>
+        <v>3459.3703507288</v>
       </c>
       <c r="C11" t="n">
-        <v>7584</v>
+        <v>7568.7166219954</v>
       </c>
       <c r="D11" t="n">
-        <v>2001</v>
+        <v>3378.2059367341</v>
       </c>
       <c r="E11" t="n">
-        <v>3495</v>
+        <v>2849.5681463114</v>
       </c>
       <c r="F11" t="n">
-        <v>2128</v>
+        <v>2856.8975476214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3955</v>
+        <v>3510</v>
       </c>
       <c r="C12" t="n">
-        <v>7448</v>
+        <v>7661</v>
       </c>
       <c r="D12" t="n">
-        <v>2230</v>
+        <v>3441</v>
       </c>
       <c r="E12" t="n">
-        <v>3504</v>
+        <v>2948</v>
       </c>
       <c r="F12" t="n">
-        <v>2189</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3779</v>
+        <v>3554</v>
       </c>
       <c r="C13" t="n">
-        <v>7403</v>
+        <v>7634</v>
       </c>
       <c r="D13" t="n">
-        <v>2554</v>
+        <v>3403</v>
       </c>
       <c r="E13" t="n">
-        <v>3495</v>
+        <v>2774</v>
       </c>
       <c r="F13" t="n">
-        <v>2253</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3535</v>
+        <v>3624.94442871301</v>
       </c>
       <c r="C14" t="n">
-        <v>7196</v>
+        <v>7597.38029166077</v>
       </c>
       <c r="D14" t="n">
-        <v>2736</v>
+        <v>3275.90867903157</v>
       </c>
       <c r="E14" t="n">
-        <v>3411</v>
+        <v>2895.15616593516</v>
       </c>
       <c r="F14" t="n">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3279</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6913</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2876</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3227</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3222</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6946</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2977</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3152</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7086</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3118</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2965</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3150</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7211</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3211</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2887</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3213</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7300</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3327</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2861</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3347</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7438</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3350</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2828</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3459.3703507288</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7568.7166219954</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3378.2059367341</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2849.5681463114</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2856.8975476214</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3509.93843077033</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7660.69297525088</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3441.49380379272</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2948.32141709225</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3125.99464304846</v>
+        <v>3510.14222001982</v>
       </c>
     </row>
   </sheetData>
